--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:25:29+00:00</t>
+    <t>2022-04-14T19:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T19:48:55+00:00</t>
+    <t>2022-04-14T20:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:08:42+00:00</t>
+    <t>2022-04-14T20:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:27:58+00:00</t>
+    <t>2022-04-14T20:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-14T20:44:08+00:00</t>
+    <t>2022-04-15T12:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:45:47+00:00</t>
+    <t>2022-04-15T14:01:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:01:58+00:00</t>
+    <t>2022-04-15T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:27:29+00:00</t>
+    <t>2022-04-15T14:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:45:08+00:00</t>
+    <t>2022-04-15T14:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T14:52:59+00:00</t>
+    <t>2022-04-15T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:34:51+00:00</t>
+    <t>2022-04-15T15:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="149">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T15:54:30+00:00</t>
+    <t>2022-04-15T17:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,17 +425,11 @@
     <t>maxValueLabel</t>
   </si>
   <si>
-    <t>scale</t>
+    <t>maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">integer
 </t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>maxLength</t>
   </si>
   <si>
     <t>subType</t>
@@ -448,6 +442,9 @@
   </si>
   <si>
     <t>fieldCode</t>
+  </si>
+  <si>
+    <t>scale</t>
   </si>
   <si>
     <t>medValueLabel</t>
@@ -779,7 +776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ165"/>
+  <dimension ref="A1:AJ160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9234,7 +9231,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>97</v>
@@ -10242,7 +10239,7 @@
         <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>97</v>
@@ -10641,7 +10638,7 @@
         <v>73</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>108</v>
@@ -10721,7 +10718,7 @@
         <v>85</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>73</v>
@@ -11060,7 +11057,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>73</v>
@@ -11225,7 +11222,7 @@
         <v>85</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>73</v>
@@ -11250,7 +11247,7 @@
         <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>97</v>
@@ -11564,7 +11561,7 @@
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>73</v>
@@ -11729,7 +11726,7 @@
         <v>85</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>73</v>
@@ -12068,7 +12065,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>73</v>
@@ -12153,7 +12150,7 @@
         <v>73</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>108</v>
@@ -12233,7 +12230,7 @@
         <v>85</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>73</v>
@@ -12258,7 +12255,7 @@
         <v>87</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>97</v>
@@ -12572,7 +12569,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>73</v>
@@ -12762,7 +12759,7 @@
         <v>87</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>97</v>
@@ -13665,7 +13662,7 @@
         <v>73</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>108</v>
@@ -14673,7 +14670,7 @@
         <v>73</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>108</v>
@@ -15681,7 +15678,7 @@
         <v>73</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>108</v>
@@ -16766,17 +16763,15 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>79</v>
@@ -16791,22 +16786,24 @@
         <v>73</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R159" t="s" s="2">
         <v>73</v>
@@ -16848,27 +16845,27 @@
         <v>73</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -16879,7 +16876,7 @@
         <v>74</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>73</v>
@@ -16891,13 +16888,13 @@
         <v>73</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -16948,7 +16945,7 @@
         <v>73</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
@@ -16960,513 +16957,9 @@
         <v>73</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:11:07+00:00</t>
+    <t>2022-04-15T17:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T17:46:09+00:00</t>
+    <t>2022-04-15T19:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:11:05+00:00</t>
+    <t>2022-04-15T19:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:26:54+00:00</t>
+    <t>2022-04-18T13:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:39:40+00:00</t>
+    <t>2022-04-18T13:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:50:56+00:00</t>
+    <t>2022-04-18T13:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:55:40+00:00</t>
+    <t>2022-04-18T14:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:09:42+00:00</t>
+    <t>2022-04-18T14:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:34:01+00:00</t>
+    <t>2022-04-18T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:36:39+00:00</t>
+    <t>2022-04-18T14:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:49:47+00:00</t>
+    <t>2022-04-18T14:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:59:18+00:00</t>
+    <t>2022-04-19T16:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/vasScale-item</t>
+    <t>http://science37.com/fhir/StructureDefinition/vasScale-item</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/item-settings</t>
+    <t>http://science37.com/fhir/StructureDefinition/item-settings</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:57:06+00:00</t>
+    <t>2022-04-19T19:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
+++ b/branches/itemExtensions/StructureDefinition-vasScale-item.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:13:12+00:00</t>
+    <t>2022-04-19T19:15:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
